--- a/biology/Mycologie/Clavaire_en_chandelier/Clavaire_en_chandelier.xlsx
+++ b/biology/Mycologie/Clavaire_en_chandelier/Clavaire_en_chandelier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Clavicorona pyxidata · Clavaire en chandelier, Clavaire couronnée
-Artomyces pyxidatus, la Clavaire en chandelier, Clavaire couronnée, ou encore Clavaire à pyxides est une espèce de champignons basidiomycètes de l'ordre des Russulales. Sa principale caractéristique est la forme en couronne de l'extrémité de ses branches. Le épithète pyxidatus signifie "en forme de boîte" - une référence à cette forme[1].
+Artomyces pyxidatus, la Clavaire en chandelier, Clavaire couronnée, ou encore Clavaire à pyxides est une espèce de champignons basidiomycètes de l'ordre des Russulales. Sa principale caractéristique est la forme en couronne de l'extrémité de ses branches. Le épithète pyxidatus signifie "en forme de boîte" - une référence à cette forme.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Artomyces pyxidatus (Pers.) Jülich 1982
 Artomyces pyxidatus f. luteovirescens Franchi &amp; M. Marchetti
@@ -551,9 +565,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le champignon produit ses fructifications, qui ressemblent à du corail, sur du bois en décomposition. La couleur va du blanc-crème au semi-brun[2]. Les branches se dressent en anneaux, lui donnant ainsi l'aspect d'une couronne[2]. Les basides et les basidiospores sont produites à la surface des nombreuses branches.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le champignon produit ses fructifications, qui ressemblent à du corail, sur du bois en décomposition. La couleur va du blanc-crème au semi-brun. Les branches se dressent en anneaux, lui donnant ainsi l'aspect d'une couronne. Les basides et les basidiospores sont produites à la surface des nombreuses branches.
 </t>
         </is>
       </c>
@@ -582,9 +598,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces champignons sont considérés comme comestibles lorsqu'ils sont crus[1], mais sont meilleurs cuits. Il est préférable de les servir frits en omelette ou avec des pommes de terre[3]. On le trouve souvent en trop faible quantité pour faire un repas[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces champignons sont considérés comme comestibles lorsqu'ils sont crus, mais sont meilleurs cuits. Il est préférable de les servir frits en omelette ou avec des pommes de terre. On le trouve souvent en trop faible quantité pour faire un repas.
 </t>
         </is>
       </c>
